--- a/Karyawan1.xlsx
+++ b/Karyawan1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\#2025\DIKJAR\STATEL\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rendr\Documents\GitHub\Linear-Regression-Dataset-Karyawan1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F73EC288-E5A1-43F5-91D1-553B1464EA27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF60BA14-0645-4856-9E51-6EA1EF420A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{20003EE5-B503-42B5-944C-538F94BB1DD5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{20003EE5-B503-42B5-944C-538F94BB1DD5}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="91">
   <si>
     <t>nomor</t>
   </si>
@@ -68,9 +68,6 @@
     <t>skor_produktivitas</t>
   </si>
   <si>
-    <t>Z</t>
-  </si>
-  <si>
     <t>9524</t>
   </si>
   <si>
@@ -122,13 +119,7 @@
     <t>9544</t>
   </si>
   <si>
-    <t>rata2 x</t>
-  </si>
-  <si>
     <t>9548</t>
-  </si>
-  <si>
-    <t>rata2 y</t>
   </si>
   <si>
     <t>9570</t>
@@ -700,7 +691,7 @@
   <dimension ref="A1:P71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,31 +733,29 @@
         <v>9</v>
       </c>
       <c r="L1" s="1"/>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
       <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
         <v>14</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
       </c>
       <c r="G2">
         <v>24</v>
@@ -780,45 +769,30 @@
       <c r="J2">
         <v>60</v>
       </c>
-      <c r="L2" s="1">
-        <f>AVERAGE(I2:I71)</f>
-        <v>1502.1171428571429</v>
-      </c>
-      <c r="M2" s="1">
-        <f>(I2-L2)/L3</f>
-        <v>-1.9320517380331592</v>
-      </c>
-      <c r="N2" s="1">
-        <f>H2-M9</f>
-        <v>-1.9714285714285715</v>
-      </c>
-      <c r="O2" s="1">
-        <f>J2-M10</f>
-        <v>-20.042857142857144</v>
-      </c>
-      <c r="P2" s="1">
-        <f>N2^2</f>
-        <v>3.8865306122448984</v>
-      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
         <v>14</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
       </c>
       <c r="G3">
         <v>22</v>
@@ -832,10 +806,7 @@
       <c r="J3">
         <v>70</v>
       </c>
-      <c r="L3" s="1">
-        <f>_xlfn.STDEV.P(I2:I71)</f>
-        <v>240.21983144696583</v>
-      </c>
+      <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -843,22 +814,22 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4">
         <v>22</v>
@@ -880,22 +851,22 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G5">
         <v>23</v>
@@ -917,22 +888,22 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G6">
         <v>25</v>
@@ -954,22 +925,22 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7">
         <v>26</v>
@@ -991,22 +962,22 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
         <v>14</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
       </c>
       <c r="G8">
         <v>26</v>
@@ -1028,22 +999,22 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G9">
         <v>27</v>
@@ -1057,35 +1028,30 @@
       <c r="J9">
         <v>65</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M9" s="1">
-        <f>AVERAGE(H2:H71)</f>
-        <v>5.9714285714285715</v>
-      </c>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10">
         <v>30</v>
@@ -1099,35 +1065,30 @@
       <c r="J10">
         <v>76</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M10" s="1">
-        <f>AVERAGE(J2:J71)</f>
-        <v>80.042857142857144</v>
-      </c>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G11">
         <v>31</v>
@@ -1149,22 +1110,22 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G12">
         <v>31</v>
@@ -1186,22 +1147,22 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G13">
         <v>31</v>
@@ -1218,22 +1179,22 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G14">
         <v>31</v>
@@ -1250,22 +1211,22 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G15">
         <v>31</v>
@@ -1282,22 +1243,22 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G16">
         <v>32</v>
@@ -1314,22 +1275,22 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G17">
         <v>21</v>
@@ -1346,22 +1307,22 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G18">
         <v>25</v>
@@ -1378,22 +1339,22 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G19">
         <v>28</v>
@@ -1410,22 +1371,22 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G20">
         <v>30</v>
@@ -1442,22 +1403,22 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G21">
         <v>32</v>
@@ -1474,22 +1435,22 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G22">
         <v>31</v>
@@ -1506,22 +1467,22 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E23">
         <v>2</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G23">
         <v>34</v>
@@ -1538,22 +1499,22 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G24">
         <v>34</v>
@@ -1570,22 +1531,22 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
         <v>12</v>
       </c>
-      <c r="C25" t="s">
-        <v>13</v>
-      </c>
       <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
         <v>14</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25" t="s">
-        <v>15</v>
       </c>
       <c r="G25">
         <v>21</v>
@@ -1602,22 +1563,22 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G26">
         <v>21</v>
@@ -1634,22 +1595,22 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
         <v>12</v>
       </c>
-      <c r="C27" t="s">
-        <v>13</v>
-      </c>
       <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
         <v>14</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27" t="s">
-        <v>15</v>
       </c>
       <c r="G27">
         <v>22</v>
@@ -1666,22 +1627,22 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
         <v>12</v>
       </c>
-      <c r="C28" t="s">
-        <v>13</v>
-      </c>
       <c r="D28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G28">
         <v>23</v>
@@ -1698,22 +1659,22 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G29">
         <v>23</v>
@@ -1730,22 +1691,22 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
         <v>14</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30" t="s">
-        <v>15</v>
       </c>
       <c r="G30">
         <v>25</v>
@@ -1762,22 +1723,22 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G31">
         <v>27</v>
@@ -1794,22 +1755,22 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E32">
         <v>2</v>
       </c>
       <c r="F32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G32">
         <v>28</v>
@@ -1826,22 +1787,22 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G33">
         <v>31</v>
@@ -1858,22 +1819,22 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G34">
         <v>31</v>
@@ -1890,22 +1851,22 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G35">
         <v>31</v>
@@ -1922,22 +1883,22 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E36">
         <v>2</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G36">
         <v>31</v>
@@ -1954,22 +1915,22 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
         <v>14</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37" t="s">
-        <v>15</v>
       </c>
       <c r="G37">
         <v>21</v>
@@ -1986,22 +1947,22 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G38">
         <v>22</v>
@@ -2018,22 +1979,22 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G39">
         <v>23</v>
@@ -2050,22 +2011,22 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E40">
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G40">
         <v>23</v>
@@ -2082,22 +2043,22 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G41">
         <v>23</v>
@@ -2114,22 +2075,22 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E42">
         <v>2</v>
       </c>
       <c r="F42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G42">
         <v>23</v>
@@ -2146,22 +2107,22 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G43">
         <v>24</v>
@@ -2178,22 +2139,22 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E44">
         <v>3</v>
       </c>
       <c r="F44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G44">
         <v>24</v>
@@ -2210,22 +2171,22 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D45" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45" t="s">
         <v>14</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45" t="s">
-        <v>15</v>
       </c>
       <c r="G45">
         <v>25</v>
@@ -2242,22 +2203,22 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E46">
         <v>4</v>
       </c>
       <c r="F46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G46">
         <v>26</v>
@@ -2274,22 +2235,22 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E47">
         <v>4</v>
       </c>
       <c r="F47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G47">
         <v>26</v>
@@ -2306,22 +2267,22 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" t="s">
         <v>12</v>
       </c>
-      <c r="C48" t="s">
-        <v>13</v>
-      </c>
       <c r="D48" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E48">
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G48">
         <v>27</v>
@@ -2338,22 +2299,22 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G49">
         <v>27</v>
@@ -2370,22 +2331,22 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G50">
         <v>27</v>
@@ -2402,22 +2363,22 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E51">
         <v>4</v>
       </c>
       <c r="F51" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G51">
         <v>27</v>
@@ -2434,22 +2395,22 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C52" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G52">
         <v>27</v>
@@ -2466,22 +2427,22 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E53">
         <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G53">
         <v>29</v>
@@ -2498,22 +2459,22 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D54" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E54">
         <v>2</v>
       </c>
       <c r="F54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G54">
         <v>29</v>
@@ -2530,22 +2491,22 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G55">
         <v>29</v>
@@ -2562,22 +2523,22 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G56">
         <v>31</v>
@@ -2594,22 +2555,22 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C57" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="F57" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G57">
         <v>31</v>
@@ -2626,22 +2587,22 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G58">
         <v>31</v>
@@ -2658,22 +2619,22 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D59" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E59">
         <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G59">
         <v>32</v>
@@ -2690,22 +2651,22 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D60" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E60">
         <v>2</v>
       </c>
       <c r="F60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G60">
         <v>34</v>
@@ -2722,22 +2683,22 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C61" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
       <c r="F61" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G61">
         <v>34</v>
@@ -2754,22 +2715,22 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C62" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D62" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E62">
         <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G62">
         <v>28</v>
@@ -2786,22 +2747,22 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D63" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E63">
         <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G63">
         <v>27</v>
@@ -2818,22 +2779,22 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C64" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G64">
         <v>25</v>
@@ -2850,22 +2811,22 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D65" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G65">
         <v>24</v>
@@ -2882,22 +2843,22 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C66" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D66" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="F66" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G66">
         <v>23</v>
@@ -2914,22 +2875,22 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C67" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
       <c r="F67" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G67">
         <v>23</v>
@@ -2946,22 +2907,22 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
       <c r="F68" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G68">
         <v>24</v>
@@ -2978,22 +2939,22 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C69" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E69">
         <v>0</v>
       </c>
       <c r="F69" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G69">
         <v>25</v>
@@ -3010,22 +2971,22 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D70" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E70">
         <v>2</v>
       </c>
       <c r="F70" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G70">
         <v>30</v>
@@ -3042,22 +3003,22 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B71" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C71" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D71" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E71">
         <v>1</v>
       </c>
       <c r="F71" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G71">
         <v>29</v>
